--- a/myInfo/每日工作计划.xlsx
+++ b/myInfo/每日工作计划.xlsx
@@ -2701,6 +2701,150 @@
   </si>
   <si>
     <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改一个页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天做事分优先级，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专注解决首要问题，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做好标注，课余研究</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚上锻炼半小时，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小事情做不好，不太重视，比如晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点之前睡觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天喝足够多的水</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>9.</t>
     </r>
     <r>
@@ -2713,149 +2857,15 @@
       </rPr>
       <t>锻炼身体，注意形象</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>改一个页面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天做事分优先级，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专注解决首要问题，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做好标注，课余研究</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚上锻炼半小时，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小事情做不好，不太重视，比如晚上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点之前睡觉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天喝足够多的水</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3776,7 +3786,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
@@ -4245,7 +4255,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4258,7 +4268,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4268,10 +4278,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4301,7 +4311,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/myInfo/每日工作计划.xlsx
+++ b/myInfo/每日工作计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2866,6 +2866,22 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尊重任何人，一定要客气</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4252,7 +4268,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -4312,6 +4328,11 @@
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
